--- a/data/evaluation/evaluation_North_Autumn_Clementines.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Clementines.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2518.19306310973</v>
+        <v>2394.705516705517</v>
       </c>
       <c r="C3" t="n">
-        <v>12000843.04610108</v>
+        <v>10011395.56097101</v>
       </c>
       <c r="D3" t="n">
-        <v>3464.223296224</v>
+        <v>3164.078943542815</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.142512908232478</v>
+        <v>-0.7873364509812848</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2360.803912233981</v>
+        <v>2350.608514937082</v>
       </c>
       <c r="C4" t="n">
-        <v>9894458.239606468</v>
+        <v>9606153.908773933</v>
       </c>
       <c r="D4" t="n">
-        <v>3145.545777700027</v>
+        <v>3099.379600625572</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7664596076199288</v>
+        <v>-0.7149885777985101</v>
       </c>
     </row>
     <row r="5">
